--- a/data/evaluation/evaluation_Center_Spring_Lettuce.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Lettuce.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2454.20236710521</v>
+        <v>2509.96932105598</v>
       </c>
       <c r="C4" t="n">
-        <v>13237630.83693522</v>
+        <v>13626815.72050273</v>
       </c>
       <c r="D4" t="n">
-        <v>3638.355512719341</v>
+        <v>3691.45170908448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05794212415692601</v>
+        <v>0.03024572672447423</v>
       </c>
     </row>
     <row r="5">
